--- a/G9/DB_Schema.xlsx
+++ b/G9/DB_Schema.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chitkara\G9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A69BA-ABCD-4DA3-A9E4-90A2C2F46C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322A5F4-E7E8-4375-BA8A-13FDA44D10BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B18CF95-F096-4B03-A084-BA336B195878}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7B18CF95-F096-4B03-A084-BA336B195878}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Management" sheetId="1" r:id="rId1"/>
+    <sheet name="user_management" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>Table:</t>
   </si>
@@ -139,16 +140,163 @@
   </si>
   <si>
     <t>Prod_reviews</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>user_pwd</t>
+  </si>
+  <si>
+    <t>user_age</t>
+  </si>
+  <si>
+    <t>user_gender</t>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>enum('registered','admin')</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+  </si>
+  <si>
+    <t>registered_on</t>
+  </si>
+  <si>
+    <t>varchar (255) + unique key</t>
+  </si>
+  <si>
+    <t>varchar (30)</t>
+  </si>
+  <si>
+    <t>enum('true','false')</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('male','female','others')</t>
+    </r>
+  </si>
+  <si>
+    <t>User_address</t>
+  </si>
+  <si>
+    <t>primary_addr</t>
+  </si>
+  <si>
+    <t>pin_code</t>
+  </si>
+  <si>
+    <t>char(6)</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Master_city</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>Master_state</t>
+  </si>
+  <si>
+    <t>state_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar(255) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default "India"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,10 +343,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,16 +1572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>246185</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>994327</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>105508</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387928</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1443,8 +1596,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11131062" y="2262554"/>
-          <a:ext cx="1465384" cy="0"/>
+          <a:off x="8371872" y="2936099"/>
+          <a:ext cx="1679601" cy="1538919"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1472,16 +1625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>527540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208886</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>568571</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>249917</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>62878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1510,8 +1663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13018478" y="2836984"/>
-          <a:ext cx="650631" cy="650631"/>
+          <a:off x="10482031" y="5362241"/>
+          <a:ext cx="650631" cy="644237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,16 +1675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>87924</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>41029</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268034</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>814754</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163590</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98046</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1546,7 +1699,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12577797" y="1301793"/>
+          <a:off x="9931579" y="3774829"/>
           <a:ext cx="2112284" cy="2266817"/>
           <a:chOff x="12578862" y="1312983"/>
           <a:chExt cx="2116015" cy="2286000"/>
@@ -1848,10 +2001,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>767861</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490770</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="582386" cy="436786"/>
     <xdr:sp macro="" textlink="">
@@ -1867,7 +2020,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11652738" y="2057400"/>
+          <a:off x="8935115" y="3480687"/>
           <a:ext cx="582386" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1907,16 +2060,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>949569</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>693260</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>105507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1931,8 +2084,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11834446" y="287215"/>
-          <a:ext cx="1266092" cy="345831"/>
+          <a:off x="8070805" y="285616"/>
+          <a:ext cx="5056377" cy="1072129"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1960,10 +2113,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>339969</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>64476</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>880297</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43695</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="582386" cy="436786"/>
     <xdr:sp macro="" textlink="">
@@ -1979,7 +2132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12221307" y="246184"/>
+          <a:off x="11763042" y="944240"/>
           <a:ext cx="582386" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2021,6 +2174,681 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1973580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D82D5F0-F798-C143-AD68-CE05CE883968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3032760" y="320040"/>
+          <a:ext cx="1508760" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D4E61B-685B-DC4D-7257-C341555D28C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6515100" y="350520"/>
+          <a:ext cx="1341120" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="411480" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BE1BD8-46F9-9E60-560A-5205DAB0F4BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6995160" y="632460"/>
+          <a:ext cx="411480" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="411480" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA3182D-5F6E-4260-96E1-35E9380816F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703320" y="312420"/>
+          <a:ext cx="411480" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>1:M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1958340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E780B85-24FF-2B5D-706B-B78C14DFD73A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3017520" y="320040"/>
+          <a:ext cx="4831080" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11830"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1158240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Freeform: Shape 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90E46BF-A90D-6A82-C73A-EC0E52B65F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9768840" y="541020"/>
+          <a:ext cx="769620" cy="1684020"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 83820 w 769620"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1890116"/>
+            <a:gd name="connsiteX1" fmla="*/ 358140 w 769620"/>
+            <a:gd name="connsiteY1" fmla="*/ 160020 h 1890116"/>
+            <a:gd name="connsiteX2" fmla="*/ 419100 w 769620"/>
+            <a:gd name="connsiteY2" fmla="*/ 182880 h 1890116"/>
+            <a:gd name="connsiteX3" fmla="*/ 525780 w 769620"/>
+            <a:gd name="connsiteY3" fmla="*/ 259080 h 1890116"/>
+            <a:gd name="connsiteX4" fmla="*/ 662940 w 769620"/>
+            <a:gd name="connsiteY4" fmla="*/ 342900 h 1890116"/>
+            <a:gd name="connsiteX5" fmla="*/ 701040 w 769620"/>
+            <a:gd name="connsiteY5" fmla="*/ 381000 h 1890116"/>
+            <a:gd name="connsiteX6" fmla="*/ 723900 w 769620"/>
+            <a:gd name="connsiteY6" fmla="*/ 441960 h 1890116"/>
+            <a:gd name="connsiteX7" fmla="*/ 762000 w 769620"/>
+            <a:gd name="connsiteY7" fmla="*/ 518160 h 1890116"/>
+            <a:gd name="connsiteX8" fmla="*/ 769620 w 769620"/>
+            <a:gd name="connsiteY8" fmla="*/ 579120 h 1890116"/>
+            <a:gd name="connsiteX9" fmla="*/ 762000 w 769620"/>
+            <a:gd name="connsiteY9" fmla="*/ 655320 h 1890116"/>
+            <a:gd name="connsiteX10" fmla="*/ 746760 w 769620"/>
+            <a:gd name="connsiteY10" fmla="*/ 746760 h 1890116"/>
+            <a:gd name="connsiteX11" fmla="*/ 754380 w 769620"/>
+            <a:gd name="connsiteY11" fmla="*/ 807720 h 1890116"/>
+            <a:gd name="connsiteX12" fmla="*/ 746760 w 769620"/>
+            <a:gd name="connsiteY12" fmla="*/ 876300 h 1890116"/>
+            <a:gd name="connsiteX13" fmla="*/ 556260 w 769620"/>
+            <a:gd name="connsiteY13" fmla="*/ 1280160 h 1890116"/>
+            <a:gd name="connsiteX14" fmla="*/ 541020 w 769620"/>
+            <a:gd name="connsiteY14" fmla="*/ 1325880 h 1890116"/>
+            <a:gd name="connsiteX15" fmla="*/ 533400 w 769620"/>
+            <a:gd name="connsiteY15" fmla="*/ 1356360 h 1890116"/>
+            <a:gd name="connsiteX16" fmla="*/ 525780 w 769620"/>
+            <a:gd name="connsiteY16" fmla="*/ 1394460 h 1890116"/>
+            <a:gd name="connsiteX17" fmla="*/ 510540 w 769620"/>
+            <a:gd name="connsiteY17" fmla="*/ 1417320 h 1890116"/>
+            <a:gd name="connsiteX18" fmla="*/ 480060 w 769620"/>
+            <a:gd name="connsiteY18" fmla="*/ 1508760 h 1890116"/>
+            <a:gd name="connsiteX19" fmla="*/ 472440 w 769620"/>
+            <a:gd name="connsiteY19" fmla="*/ 1546860 h 1890116"/>
+            <a:gd name="connsiteX20" fmla="*/ 457200 w 769620"/>
+            <a:gd name="connsiteY20" fmla="*/ 1569720 h 1890116"/>
+            <a:gd name="connsiteX21" fmla="*/ 426720 w 769620"/>
+            <a:gd name="connsiteY21" fmla="*/ 1630680 h 1890116"/>
+            <a:gd name="connsiteX22" fmla="*/ 411480 w 769620"/>
+            <a:gd name="connsiteY22" fmla="*/ 1653540 h 1890116"/>
+            <a:gd name="connsiteX23" fmla="*/ 365760 w 769620"/>
+            <a:gd name="connsiteY23" fmla="*/ 1668780 h 1890116"/>
+            <a:gd name="connsiteX24" fmla="*/ 304800 w 769620"/>
+            <a:gd name="connsiteY24" fmla="*/ 1699260 h 1890116"/>
+            <a:gd name="connsiteX25" fmla="*/ 259080 w 769620"/>
+            <a:gd name="connsiteY25" fmla="*/ 1722120 h 1890116"/>
+            <a:gd name="connsiteX26" fmla="*/ 243840 w 769620"/>
+            <a:gd name="connsiteY26" fmla="*/ 1744980 h 1890116"/>
+            <a:gd name="connsiteX27" fmla="*/ 220980 w 769620"/>
+            <a:gd name="connsiteY27" fmla="*/ 1775460 h 1890116"/>
+            <a:gd name="connsiteX28" fmla="*/ 190500 w 769620"/>
+            <a:gd name="connsiteY28" fmla="*/ 1821180 h 1890116"/>
+            <a:gd name="connsiteX29" fmla="*/ 114300 w 769620"/>
+            <a:gd name="connsiteY29" fmla="*/ 1836420 h 1890116"/>
+            <a:gd name="connsiteX30" fmla="*/ 7620 w 769620"/>
+            <a:gd name="connsiteY30" fmla="*/ 1889760 h 1890116"/>
+            <a:gd name="connsiteX31" fmla="*/ 0 w 769620"/>
+            <a:gd name="connsiteY31" fmla="*/ 1889760 h 1890116"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="769620" h="1890116">
+              <a:moveTo>
+                <a:pt x="83820" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="187712" y="69261"/>
+                <a:pt x="183908" y="68319"/>
+                <a:pt x="358140" y="160020"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="377344" y="170128"/>
+                <a:pt x="400416" y="171840"/>
+                <a:pt x="419100" y="182880"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="456722" y="205111"/>
+                <a:pt x="487416" y="238154"/>
+                <a:pt x="525780" y="259080"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="581053" y="289229"/>
+                <a:pt x="616470" y="304175"/>
+                <a:pt x="662940" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="676738" y="354398"/>
+                <a:pt x="688340" y="368300"/>
+                <a:pt x="701040" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="708660" y="401320"/>
+                <a:pt x="715086" y="422129"/>
+                <a:pt x="723900" y="441960"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="735434" y="467910"/>
+                <a:pt x="753020" y="491219"/>
+                <a:pt x="762000" y="518160"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="768476" y="537587"/>
+                <a:pt x="767080" y="558800"/>
+                <a:pt x="769620" y="579120"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="767080" y="604520"/>
+                <a:pt x="765449" y="630027"/>
+                <a:pt x="762000" y="655320"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="757825" y="685937"/>
+                <a:pt x="748303" y="715898"/>
+                <a:pt x="746760" y="746760"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="745737" y="767213"/>
+                <a:pt x="751840" y="787400"/>
+                <a:pt x="754380" y="807720"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="751840" y="830580"/>
+                <a:pt x="755655" y="855089"/>
+                <a:pt x="746760" y="876300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="689198" y="1013564"/>
+                <a:pt x="603329" y="1138953"/>
+                <a:pt x="556260" y="1280160"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="551180" y="1295400"/>
+                <a:pt x="545636" y="1310493"/>
+                <a:pt x="541020" y="1325880"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="538011" y="1335911"/>
+                <a:pt x="535672" y="1346137"/>
+                <a:pt x="533400" y="1356360"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="530590" y="1369003"/>
+                <a:pt x="530328" y="1382333"/>
+                <a:pt x="525780" y="1394460"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="522564" y="1403035"/>
+                <a:pt x="515620" y="1409700"/>
+                <a:pt x="510540" y="1417320"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="492545" y="1489300"/>
+                <a:pt x="504667" y="1459546"/>
+                <a:pt x="480060" y="1508760"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="477520" y="1521460"/>
+                <a:pt x="476988" y="1534733"/>
+                <a:pt x="472440" y="1546860"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="469224" y="1555435"/>
+                <a:pt x="461296" y="1561529"/>
+                <a:pt x="457200" y="1569720"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="416577" y="1650965"/>
+                <a:pt x="505930" y="1503944"/>
+                <a:pt x="426720" y="1630680"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="421866" y="1638446"/>
+                <a:pt x="419246" y="1648686"/>
+                <a:pt x="411480" y="1653540"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="397857" y="1662054"/>
+                <a:pt x="380525" y="1662452"/>
+                <a:pt x="365760" y="1668780"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="344878" y="1677729"/>
+                <a:pt x="325482" y="1689859"/>
+                <a:pt x="304800" y="1699260"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="255224" y="1721794"/>
+                <a:pt x="309178" y="1688722"/>
+                <a:pt x="259080" y="1722120"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="254000" y="1729740"/>
+                <a:pt x="249163" y="1737528"/>
+                <a:pt x="243840" y="1744980"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="236458" y="1755314"/>
+                <a:pt x="227281" y="1764433"/>
+                <a:pt x="220980" y="1775460"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="203773" y="1805572"/>
+                <a:pt x="227330" y="1796627"/>
+                <a:pt x="190500" y="1821180"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="175991" y="1830852"/>
+                <a:pt x="118817" y="1835775"/>
+                <a:pt x="114300" y="1836420"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="69542" y="1861286"/>
+                <a:pt x="51286" y="1875205"/>
+                <a:pt x="7620" y="1889760"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5210" y="1890563"/>
+                <a:pt x="2540" y="1889760"/>
+                <a:pt x="0" y="1889760"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2323,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603F0631-553F-4F1A-92F9-A5812C5F1882}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2365,12 +3193,6 @@
       <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2397,12 +3219,6 @@
       <c r="O2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2429,12 +3245,6 @@
       <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2461,12 +3271,6 @@
       <c r="O4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2487,11 +3291,11 @@
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>6</v>
+      <c r="R5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2514,10 +3318,10 @@
         <v>17</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2534,10 +3338,10 @@
         <v>17</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2547,6 +3351,12 @@
       <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I9" s="2" t="s">
@@ -2555,14 +3365,32 @@
       <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="R9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I12" s="2"/>
@@ -2572,4 +3400,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B595D8-AEEF-432F-9C20-0BE2BDFB8659}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>